--- a/TestSite.PL.WebPages/App_Data/ReportTemplate/report.xlsx
+++ b/TestSite.PL.WebPages/App_Data/ReportTemplate/report.xlsx
@@ -11,9 +11,11 @@
     <sheet name="Protokol" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">$A$2:$E$2</definedName>
-    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">$A$2:$E$2</definedName>
-    <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">$A$2:$A$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Protokol!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">$A$3:$E$3</definedName>
+    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">$A$3:$E$3</definedName>
+    <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">$A$3:$A$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Protokol!$A$1:$E$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">Протокол тестирования</t>
   </si>
   <si>
+    <t xml:space="preserve">Отдел:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дата</t>
   </si>
   <si>
@@ -42,7 +47,7 @@
     <t xml:space="preserve">Кол ошиб</t>
   </si>
   <si>
-    <t xml:space="preserve">% ошибок</t>
+    <t xml:space="preserve">Оценка</t>
   </si>
   <si>
     <t xml:space="preserve">Ответственный за проведение ___________________   ________________________</t>
@@ -148,13 +153,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -194,18 +203,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -217,58 +227,67 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.539583333333333" right="0.494444444444444" top="0.415277777777778" bottom="0.415972222222222" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.345138888888889" right="0.323611111111111" top="0.415277777777778" bottom="0.415972222222222" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/TestSite.PL.WebPages/App_Data/ReportTemplate/report.xlsx
+++ b/TestSite.PL.WebPages/App_Data/ReportTemplate/report.xlsx
@@ -5,17 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Protokol" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Protokol!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Protokol!$A$1:$F$8</definedName>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">$A$3:$E$3</definedName>
     <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">$A$3:$E$3</definedName>
     <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">$A$3:$A$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Protokol!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Protokol!$A$1:$F$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Protokol!$A$1:$F$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Protokol!$A$1:$F$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Protokol!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Protokol!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Protokol!$A$1:$E$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Протокол тестирования</t>
   </si>
@@ -50,13 +55,16 @@
     <t xml:space="preserve">Оценка</t>
   </si>
   <si>
-    <t xml:space="preserve">Ответственный за проведение ___________________   ________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                             (подпись)                                       (ФИО)                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответственный руководитель ___________________   ________________________</t>
+    <t xml:space="preserve">Подпись тестируемого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответственный за проведение тренировки ___________________   ________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                              (подпись)                                       (ФИО)                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Руководитель тренировки ____________________   ________________________</t>
   </si>
 </sst>
 </file>
@@ -66,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,16 +100,22 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,29 +167,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -183,6 +201,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,19 +229,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -226,64 +254,89 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.345138888888889" right="0.323611111111111" top="0.415277777777778" bottom="0.415972222222222" header="0.511805555555555" footer="0.511805555555555"/>
